--- a/datasheets/Stages.xlsx
+++ b/datasheets/Stages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10820" yWindow="0" windowWidth="37160" windowHeight="26940" tabRatio="311"/>
+    <workbookView xWindow="3560" yWindow="0" windowWidth="37160" windowHeight="27260" tabRatio="311"/>
   </bookViews>
   <sheets>
     <sheet name="Stages v7.0" sheetId="7" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="213">
   <si>
     <t>Index</t>
   </si>
@@ -540,15 +540,9 @@
     <t>R25, R27, R28, R30, R31, R32, R48, R66, R67, R68, R69, R70, R71, R72, R73, R74, R75, R76, R77</t>
   </si>
   <si>
-    <t>R34, R35, R36, R37, R38, R39</t>
-  </si>
-  <si>
     <t>R40, R41, R42, R43, R44, R45, R46</t>
   </si>
   <si>
-    <t>R54, R55, R56, R57, R58, R59</t>
-  </si>
-  <si>
     <t>15k</t>
   </si>
   <si>
@@ -567,9 +561,6 @@
     <t>667-ERJ-2RKF1303X</t>
   </si>
   <si>
-    <t>667-ERJ-2RKF1001X</t>
-  </si>
-  <si>
     <t>667-ERJ-2RKF1502X</t>
   </si>
   <si>
@@ -610,6 +601,63 @@
   </si>
   <si>
     <t>https://www.thonk.co.uk/shop/ttpots/</t>
+  </si>
+  <si>
+    <t>New Mouser</t>
+  </si>
+  <si>
+    <t>603-RC0805FR-0715KL</t>
+  </si>
+  <si>
+    <t>603-RC0805FR-07100RL</t>
+  </si>
+  <si>
+    <t>603-RC0805FR-0710KL</t>
+  </si>
+  <si>
+    <t>603-RC0805FR-0720KL</t>
+  </si>
+  <si>
+    <t>603-RC0805FR-0730KL</t>
+  </si>
+  <si>
+    <t>603-RC0805FR-07100KL</t>
+  </si>
+  <si>
+    <t>603-RC0805FR-071KL</t>
+  </si>
+  <si>
+    <t>603-RC0805FR-07130KL</t>
+  </si>
+  <si>
+    <t>R34, R35, R36, R37, R38, R39, R54, R55, R56, R57, R58, R59</t>
+  </si>
+  <si>
+    <t>810-MMZ2012S102A</t>
+  </si>
+  <si>
+    <t>603-CC805JRNPO9BN200</t>
+  </si>
+  <si>
+    <t>581-08053D104KAT2A</t>
+  </si>
+  <si>
+    <t>603-CC805JRX7R9BB222</t>
+  </si>
+  <si>
+    <t>81-GRM219C8YA105KA3D</t>
+  </si>
+  <si>
+    <t>80-C0805C471J1GAUTO</t>
+  </si>
+  <si>
+    <t>810-AVR-M2012C220K</t>
+  </si>
+  <si>
+    <t>963-TMK316BBJ226ML-T</t>
+  </si>
+  <si>
+    <t>810-CGJ4C2C0G2A101J</t>
   </si>
 </sst>
 </file>
@@ -744,7 +792,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="846">
+  <cellStyleXfs count="872">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2894,6 +2942,84 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3467,7 +3593,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="846">
+  <cellStyles count="872">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3895,6 +4021,19 @@
     <cellStyle name="Followed Hyperlink" xfId="841" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="843" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="845" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="847" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="849" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="851" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="853" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="855" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="857" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="859" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="861" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="863" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="865" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="867" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="869" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="871" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4313,6 +4452,19 @@
     <cellStyle name="Hyperlink" xfId="840" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="842" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="844" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="846" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="848" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="850" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="852" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="854" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="856" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="858" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="860" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="862" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="864" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="866" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="868" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="870" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4710,10 +4862,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -4724,15 +4876,16 @@
     <col min="4" max="4" width="17.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="5.1640625" style="38" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.83203125" style="42" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.83203125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="1"/>
+    <col min="7" max="7" width="26.6640625" style="42" customWidth="1"/>
+    <col min="8" max="8" width="21.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.83203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="34" customHeight="1">
+    <row r="1" spans="1:10" ht="34" customHeight="1">
       <c r="A1" s="60" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B1" s="60"/>
       <c r="C1" s="60"/>
@@ -4742,8 +4895,9 @@
       <c r="G1" s="60"/>
       <c r="H1" s="60"/>
       <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
     </row>
-    <row r="2" spans="1:9" ht="12" thickBot="1">
+    <row r="2" spans="1:10" ht="12" thickBot="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -4762,17 +4916,20 @@
       <c r="F2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="12" customHeight="1">
+    <row r="3" spans="1:10" ht="12" customHeight="1">
       <c r="A3" s="61" t="s">
         <v>9</v>
       </c>
@@ -4782,10 +4939,11 @@
       <c r="E3" s="61"/>
       <c r="F3" s="61"/>
       <c r="G3" s="61"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="5"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:9" s="15" customFormat="1">
+    <row r="4" spans="1:10" s="15" customFormat="1" ht="12">
       <c r="A4" s="24" t="s">
         <v>167</v>
       </c>
@@ -4800,18 +4958,21 @@
         <v>&lt;=1%, 100mW</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F4" s="36" t="str">
         <f>"0402"</f>
         <v>0402</v>
       </c>
-      <c r="G4" s="24" t="s">
-        <v>183</v>
-      </c>
-      <c r="I4" s="19"/>
+      <c r="G4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="J4" s="19"/>
     </row>
-    <row r="5" spans="1:9" s="15" customFormat="1">
+    <row r="5" spans="1:10" s="15" customFormat="1">
       <c r="A5" s="24" t="s">
         <v>168</v>
       </c>
@@ -4822,22 +4983,25 @@
         <v>90</v>
       </c>
       <c r="D5" s="17" t="str">
-        <f t="shared" ref="D5:D12" si="0">"&lt;=1%, 100mW"</f>
+        <f t="shared" ref="D5:D11" si="0">"&lt;=1%, 100mW"</f>
         <v>&lt;=1%, 100mW</v>
       </c>
       <c r="E5" s="24">
         <v>100</v>
       </c>
       <c r="F5" s="36" t="str">
-        <f t="shared" ref="F5:F12" si="1">"0402"</f>
+        <f t="shared" ref="F5:F11" si="1">"0402"</f>
         <v>0402</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="H5" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
     </row>
-    <row r="6" spans="1:9" s="15" customFormat="1">
+    <row r="6" spans="1:10" s="15" customFormat="1" ht="12">
       <c r="A6" s="24" t="s">
         <v>169</v>
       </c>
@@ -4858,12 +5022,15 @@
         <f t="shared" si="1"/>
         <v>0402</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" t="s">
+        <v>197</v>
+      </c>
+      <c r="H6" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
     </row>
-    <row r="7" spans="1:9" s="15" customFormat="1">
+    <row r="7" spans="1:10" s="15" customFormat="1" ht="12">
       <c r="A7" s="24" t="s">
         <v>170</v>
       </c>
@@ -4884,12 +5051,15 @@
         <f t="shared" si="1"/>
         <v>0402</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" t="s">
+        <v>198</v>
+      </c>
+      <c r="H7" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
     </row>
-    <row r="8" spans="1:9" s="15" customFormat="1">
+    <row r="8" spans="1:10" s="15" customFormat="1">
       <c r="A8" s="24" t="s">
         <v>171</v>
       </c>
@@ -4904,17 +5074,20 @@
         <v>&lt;=1%, 100mW</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F8" s="36" t="str">
         <f t="shared" si="1"/>
         <v>0402</v>
       </c>
-      <c r="G8" s="24" t="s">
-        <v>179</v>
+      <c r="G8" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>177</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="15" customFormat="1" ht="22">
+    <row r="9" spans="1:10" s="15" customFormat="1" ht="22">
       <c r="A9" s="24" t="s">
         <v>172</v>
       </c>
@@ -4935,16 +5108,19 @@
         <f t="shared" si="1"/>
         <v>0402</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="H9" s="24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="15" customFormat="1">
+    <row r="10" spans="1:10" s="15" customFormat="1">
       <c r="A10" s="24" t="s">
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="B10" s="30">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>90</v>
@@ -4959,13 +5135,16 @@
         <f>"0603"</f>
         <v>0603</v>
       </c>
-      <c r="G10" s="24" t="s">
-        <v>180</v>
+      <c r="G10" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>178</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="15" customFormat="1">
+    <row r="11" spans="1:10" s="15" customFormat="1">
       <c r="A11" s="24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B11" s="30">
         <v>7</v>
@@ -4978,177 +5157,200 @@
         <v>&lt;=1%, 100mW</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F11" s="36" t="str">
         <f t="shared" si="1"/>
         <v>0402</v>
       </c>
-      <c r="G11" s="24" t="s">
-        <v>181</v>
+      <c r="G11" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="15" customFormat="1">
+    <row r="12" spans="1:10" s="15" customFormat="1">
       <c r="A12" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="B12" s="30">
-        <v>6</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;=1%, 100mW</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="36" t="str">
-        <f t="shared" si="1"/>
-        <v>0402</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="15" customFormat="1">
-      <c r="A13" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B12" s="17">
         <v>4</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C12" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D12" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="31" t="str">
+      <c r="E12" s="24"/>
+      <c r="F12" s="31" t="str">
         <f>"0603"</f>
         <v>0603</v>
       </c>
-      <c r="G13" s="32" t="s">
+      <c r="G12" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="H12" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="24"/>
-      <c r="I13" s="31" t="s">
+      <c r="I12" s="24"/>
+      <c r="J12" s="31" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="15" customFormat="1">
-      <c r="A14" s="24" t="s">
+    <row r="13" spans="1:10" s="15" customFormat="1">
+      <c r="A13" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B13" s="17">
         <v>1</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C13" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="18" t="s">
+      <c r="D13" s="17"/>
+      <c r="E13" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F14" s="18" t="str">
+      <c r="F13" s="18" t="str">
         <f>"0805"</f>
         <v>0805</v>
       </c>
+      <c r="G13" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="15" customFormat="1">
+      <c r="A14" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="30">
+        <v>13</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="36">
+        <v>1206</v>
+      </c>
       <c r="G14" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>82</v>
+        <v>211</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="15" customFormat="1">
+    <row r="15" spans="1:10" s="15" customFormat="1">
       <c r="A15" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="B15" s="30">
-        <v>13</v>
+        <v>94</v>
+      </c>
+      <c r="B15" s="17">
+        <v>2</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="36">
-        <v>1206</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="I15" s="17" t="s">
-        <v>31</v>
+      <c r="D15" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="48" t="str">
+        <f>"0402"</f>
+        <v>0402</v>
+      </c>
+      <c r="G15" s="48" t="s">
+        <v>205</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="10" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="15" customFormat="1">
+    <row r="16" spans="1:10" s="15" customFormat="1" ht="22">
       <c r="A16" s="24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B16" s="17">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="F16" s="48" t="str">
         <f>"0402"</f>
         <v>0402</v>
       </c>
-      <c r="G16" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="10" t="s">
-        <v>37</v>
+      <c r="G16" s="48" t="s">
+        <v>206</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="10" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="15" customFormat="1" ht="22">
+    <row r="17" spans="1:10" s="15" customFormat="1">
       <c r="A17" s="24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B17" s="17">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="48" t="str">
+      <c r="D17" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="36" t="str">
         <f>"0402"</f>
         <v>0402</v>
       </c>
-      <c r="G17" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="10" t="s">
-        <v>24</v>
+      <c r="G17" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="15" customFormat="1">
+    <row r="18" spans="1:10" s="15" customFormat="1">
       <c r="A18" s="24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B18" s="17">
         <v>5</v>
@@ -5157,733 +5359,747 @@
         <v>11</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>192</v>
+        <v>100</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="F18" s="36" t="str">
         <f>"0402"</f>
         <v>0402</v>
       </c>
-      <c r="G18" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="I18" s="17" t="s">
-        <v>74</v>
+      <c r="G18" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="J18" s="17" t="s">
+        <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="15" customFormat="1">
+    <row r="19" spans="1:10" s="15" customFormat="1">
       <c r="A19" s="24" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B19" s="17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="F19" s="36" t="str">
+        <v>77</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" s="37" t="str">
         <f>"0402"</f>
         <v>0402</v>
       </c>
-      <c r="G19" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="I19" s="17" t="s">
-        <v>101</v>
+      <c r="G19" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22" t="s">
+        <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="15" customFormat="1">
+    <row r="20" spans="1:10" s="15" customFormat="1">
       <c r="A20" s="24" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B20" s="17">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C20" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28">
+        <v>603</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="15" customFormat="1">
+      <c r="A21" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" s="17">
+        <v>6</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D21" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="E20" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="F20" s="37" t="str">
+      <c r="E21" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="37" t="str">
         <f>"0402"</f>
         <v>0402</v>
       </c>
-      <c r="G20" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22" t="s">
-        <v>105</v>
+      <c r="G21" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="15" customFormat="1">
-      <c r="A21" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="B21" s="17">
+    <row r="22" spans="1:10" s="15" customFormat="1">
+      <c r="A22" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="17">
+        <v>2</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="28"/>
+      <c r="H22" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="15" customFormat="1">
+      <c r="A23" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" s="10">
         <v>6</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28">
-        <v>603</v>
-      </c>
-      <c r="G21" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="10" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="15" customFormat="1">
-      <c r="A22" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="B22" s="17">
-        <v>6</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="37" t="str">
-        <f>"0402"</f>
-        <v>0402</v>
-      </c>
-      <c r="G22" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="15" customFormat="1">
-      <c r="A23" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="17">
-        <v>2</v>
-      </c>
       <c r="C23" s="10" t="s">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="28"/>
-      <c r="F23" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="10" t="s">
-        <v>44</v>
+      <c r="F23" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G23" s="10"/>
+      <c r="H23" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10" t="s">
+        <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="15" customFormat="1">
-      <c r="A24" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="B24" s="10">
-        <v>6</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="G24" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10" t="s">
-        <v>112</v>
+    <row r="24" spans="1:10" s="15" customFormat="1">
+      <c r="A24" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" s="26">
+        <v>1</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="15" customFormat="1">
-      <c r="A25" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="B25" s="26">
+    <row r="25" spans="1:10" s="15" customFormat="1">
+      <c r="A25" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="10">
         <v>1</v>
       </c>
-      <c r="C25" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="G25" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27" t="s">
-        <v>88</v>
+      <c r="C25" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" s="28"/>
+      <c r="H25" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="15" customFormat="1">
+    <row r="26" spans="1:10" s="15" customFormat="1">
       <c r="A26" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="10">
+        <v>46</v>
+      </c>
+      <c r="B26" s="17">
         <v>1</v>
       </c>
-      <c r="C26" s="24" t="s">
-        <v>48</v>
+      <c r="C26" s="29" t="s">
+        <v>114</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="28"/>
-      <c r="F26" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="G26" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="10" t="s">
-        <v>49</v>
-      </c>
+      <c r="F26" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="G26" s="49"/>
+      <c r="H26" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:9" s="15" customFormat="1">
+    <row r="27" spans="1:10" s="15" customFormat="1">
       <c r="A27" s="24" t="s">
-        <v>46</v>
+        <v>116</v>
       </c>
       <c r="B27" s="17">
+        <v>2</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="J27" s="17"/>
+    </row>
+    <row r="28" spans="1:10" s="15" customFormat="1">
+      <c r="A28" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="17">
         <v>1</v>
       </c>
-      <c r="C27" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="49" t="s">
-        <v>184</v>
-      </c>
-      <c r="G27" s="50" t="s">
-        <v>115</v>
-      </c>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
+      <c r="C28" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="24"/>
+      <c r="H28" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="29" t="s">
+        <v>122</v>
+      </c>
     </row>
-    <row r="28" spans="1:9" s="15" customFormat="1">
-      <c r="A28" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="B28" s="17">
-        <v>2</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="I28" s="17"/>
-    </row>
-    <row r="29" spans="1:9" s="15" customFormat="1">
+    <row r="29" spans="1:10" s="15" customFormat="1">
       <c r="A29" s="24" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B29" s="17">
         <v>1</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="28"/>
       <c r="F29" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="H29" s="1"/>
-      <c r="I29" s="29" t="s">
-        <v>122</v>
+        <v>124</v>
+      </c>
+      <c r="G29" s="24"/>
+      <c r="H29" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="I29" s="1"/>
+      <c r="J29" s="10" t="s">
+        <v>125</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="15" customFormat="1">
+    <row r="30" spans="1:10" s="15" customFormat="1">
       <c r="A30" s="24" t="s">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="B30" s="17">
         <v>1</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="D30" s="10"/>
+        <v>185</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="E30" s="28"/>
       <c r="F30" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="G30" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="H30" s="1"/>
-      <c r="I30" s="10" t="s">
-        <v>125</v>
+        <v>51</v>
+      </c>
+      <c r="G30" s="24"/>
+      <c r="H30" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="29" t="s">
+        <v>187</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="15" customFormat="1">
+    <row r="31" spans="1:10" s="15" customFormat="1">
       <c r="A31" s="24" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B31" s="17">
+        <v>3</v>
+      </c>
+      <c r="C31" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="D31" s="47"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="G31" s="10"/>
+      <c r="H31" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="15" customFormat="1">
+      <c r="A32" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="B32" s="17">
         <v>1</v>
       </c>
-      <c r="C31" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E31" s="28"/>
-      <c r="F31" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="G31" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="H31" s="1"/>
-      <c r="I31" s="29" t="s">
+      <c r="C32" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="E32" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="F32" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" s="51"/>
+      <c r="H32" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="15" customFormat="1">
+      <c r="A33" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="B33" s="17">
+        <v>3</v>
+      </c>
+      <c r="C33" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="D33" s="47"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" s="47"/>
+      <c r="H33" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="I33" s="17"/>
+      <c r="J33" s="23"/>
+    </row>
+    <row r="34" spans="1:10" s="15" customFormat="1">
+      <c r="A34" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="17">
+        <v>1</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="F34" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="G34" s="36"/>
+      <c r="H34" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="I34" s="17"/>
+      <c r="J34" s="23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="15" customFormat="1">
+      <c r="A35" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B35" s="17">
+        <v>6</v>
+      </c>
+      <c r="C35" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="D35" s="47"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="I35" s="47"/>
+      <c r="J35" s="47" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="12" customHeight="1">
+      <c r="A36" s="62" t="s">
+        <v>146</v>
+      </c>
+      <c r="B36" s="62"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="62"/>
+      <c r="H36" s="62"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="6"/>
+    </row>
+    <row r="37" spans="1:10" s="15" customFormat="1">
+      <c r="A37" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="B37" s="15">
+        <v>1</v>
+      </c>
+      <c r="C37" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" s="47"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="47" t="s">
+        <v>145</v>
+      </c>
+      <c r="I37" s="47"/>
+      <c r="J37" s="47"/>
+    </row>
+    <row r="38" spans="1:10" ht="12" customHeight="1">
+      <c r="A38" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="62"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="62"/>
+      <c r="F38" s="62"/>
+      <c r="G38" s="62"/>
+      <c r="H38" s="62"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="6"/>
+    </row>
+    <row r="39" spans="1:10" s="15" customFormat="1">
+      <c r="A39" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="B39" s="15">
+        <v>2</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="D39" s="16"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="58"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="6"/>
+    </row>
+    <row r="41" spans="1:10" s="15" customFormat="1" ht="22">
+      <c r="A41" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="B41" s="15">
+        <v>18</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="14" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="15" customFormat="1">
-      <c r="A32" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="B32" s="17">
-        <v>3</v>
-      </c>
-      <c r="C32" s="47" t="s">
-        <v>129</v>
-      </c>
-      <c r="D32" s="47"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="G32" s="50" t="s">
-        <v>131</v>
-      </c>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" s="15" customFormat="1">
-      <c r="A33" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="B33" s="17">
-        <v>1</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="E33" s="56" t="s">
-        <v>135</v>
-      </c>
-      <c r="F33" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="G33" s="52" t="s">
-        <v>136</v>
-      </c>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" s="15" customFormat="1">
-      <c r="A34" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="B34" s="17">
-        <v>3</v>
-      </c>
-      <c r="C34" s="47" t="s">
-        <v>139</v>
-      </c>
-      <c r="D34" s="47"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="G34" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="H34" s="17"/>
-      <c r="I34" s="23"/>
-    </row>
-    <row r="35" spans="1:9" s="15" customFormat="1">
-      <c r="A35" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="B35" s="17">
-        <v>1</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E35" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="F35" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="G35" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="H35" s="17"/>
-      <c r="I35" s="23" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" s="15" customFormat="1">
-      <c r="A36" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="B36" s="17">
+    <row r="42" spans="1:10" s="15" customFormat="1">
+      <c r="A42" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="B42" s="15">
         <v>6</v>
       </c>
-      <c r="C36" s="47" t="s">
-        <v>160</v>
-      </c>
-      <c r="D36" s="47"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="G36" s="47" t="s">
-        <v>161</v>
-      </c>
-      <c r="H36" s="47"/>
-      <c r="I36" s="47" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="12" customHeight="1">
-      <c r="A37" s="62" t="s">
-        <v>146</v>
-      </c>
-      <c r="B37" s="62"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="6"/>
-    </row>
-    <row r="38" spans="1:9" s="15" customFormat="1">
-      <c r="A38" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="B38" s="15">
-        <v>1</v>
-      </c>
-      <c r="C38" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="D38" s="47"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="47" t="s">
-        <v>145</v>
-      </c>
-      <c r="H38" s="47"/>
-      <c r="I38" s="47"/>
-    </row>
-    <row r="39" spans="1:9" ht="12" customHeight="1">
-      <c r="A39" s="62" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39" s="62"/>
-      <c r="C39" s="62"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="62"/>
-      <c r="F39" s="62"/>
-      <c r="G39" s="62"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="6"/>
-    </row>
-    <row r="40" spans="1:9" s="15" customFormat="1">
-      <c r="A40" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="B40" s="15">
-        <v>2</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="D40" s="16"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="B41" s="58"/>
-      <c r="C41" s="58"/>
-      <c r="D41" s="58"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="6"/>
-    </row>
-    <row r="42" spans="1:9" s="15" customFormat="1" ht="22">
-      <c r="A42" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="B42" s="15">
-        <v>18</v>
-      </c>
       <c r="C42" s="10" t="s">
-        <v>14</v>
+        <v>152</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="38"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="14" t="s">
-        <v>193</v>
-      </c>
+      <c r="F42" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="G42" s="38"/>
+      <c r="H42" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
     </row>
-    <row r="43" spans="1:9" s="15" customFormat="1">
+    <row r="43" spans="1:10" s="15" customFormat="1">
       <c r="A43" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="B43" s="15">
+        <v>68</v>
+      </c>
+      <c r="B43" s="17">
         <v>6</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="D43" s="1"/>
+        <v>157</v>
+      </c>
+      <c r="D43" s="10"/>
       <c r="E43" s="38"/>
-      <c r="F43" s="38" t="s">
-        <v>153</v>
-      </c>
-      <c r="G43" s="25" t="s">
-        <v>154</v>
-      </c>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
       <c r="H43" s="10"/>
       <c r="I43" s="10"/>
+      <c r="J43" s="33" t="s">
+        <v>158</v>
+      </c>
     </row>
-    <row r="44" spans="1:9" s="15" customFormat="1">
+    <row r="44" spans="1:10" s="15" customFormat="1">
       <c r="A44" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B44" s="17">
+        <v>155</v>
+      </c>
+      <c r="B44" s="15">
         <v>6</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="D44" s="10"/>
+        <v>55</v>
+      </c>
+      <c r="D44" s="1"/>
       <c r="E44" s="38"/>
       <c r="F44" s="38"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="33" t="s">
-        <v>158</v>
+      <c r="G44" s="38"/>
+      <c r="H44" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="I44" s="10"/>
+      <c r="J44" s="24" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="15" customFormat="1">
+    <row r="45" spans="1:10" s="15" customFormat="1">
       <c r="A45" s="24" t="s">
-        <v>155</v>
+        <v>68</v>
       </c>
       <c r="B45" s="15">
         <v>6</v>
       </c>
-      <c r="C45" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D45" s="1"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="H45" s="10"/>
-      <c r="I45" s="24" t="s">
-        <v>56</v>
+      <c r="C45" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E45" s="44"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="I45" s="17"/>
+      <c r="J45" s="20" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:9" s="15" customFormat="1">
+    <row r="46" spans="1:10" s="15" customFormat="1">
       <c r="A46" s="24" t="s">
-        <v>68</v>
+        <v>163</v>
       </c>
       <c r="B46" s="15">
         <v>6</v>
       </c>
-      <c r="C46" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E46" s="44"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="H46" s="17"/>
-      <c r="I46" s="20" t="s">
-        <v>69</v>
+      <c r="C46" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="D46" s="16"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="55"/>
+      <c r="H46" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="I46" s="14"/>
+      <c r="J46" s="34" t="s">
+        <v>192</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="15" customFormat="1">
+    <row r="47" spans="1:10" s="15" customFormat="1">
       <c r="A47" s="24" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B47" s="15">
         <v>6</v>
       </c>
-      <c r="C47" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="D47" s="16"/>
-      <c r="E47" s="57"/>
-      <c r="F47" s="55"/>
-      <c r="G47" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="H47" s="14"/>
-      <c r="I47" s="34" t="s">
-        <v>195</v>
+      <c r="C47" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47" s="10"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="59" t="s">
+        <v>193</v>
       </c>
     </row>
-    <row r="48" spans="1:9" s="15" customFormat="1">
+    <row r="48" spans="1:10" s="15" customFormat="1">
       <c r="A48" s="24" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B48" s="15">
         <v>6</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D48" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="D48" s="1"/>
       <c r="E48" s="38"/>
       <c r="F48" s="38"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="59" t="s">
-        <v>196</v>
+      <c r="G48" s="38"/>
+      <c r="H48" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I48" s="1"/>
+      <c r="J48" s="10" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:9" s="15" customFormat="1">
+    <row r="49" spans="1:10" s="15" customFormat="1">
       <c r="A49" s="24" t="s">
-        <v>166</v>
+        <v>68</v>
       </c>
       <c r="B49" s="15">
         <v>6</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="38"/>
       <c r="F49" s="38"/>
-      <c r="G49" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="H49" s="1"/>
-      <c r="I49" s="10" t="s">
-        <v>61</v>
+      <c r="G49" s="38"/>
+      <c r="H49" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="I49" s="1"/>
+      <c r="J49" s="10" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:9" s="15" customFormat="1">
-      <c r="A50" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B50" s="15">
-        <v>6</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D50" s="1"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="38"/>
-      <c r="G50" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="H50" s="1"/>
-      <c r="I50" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="11" t="s">
+    <row r="50" spans="1:10">
+      <c r="A50" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11" t="s">
+      <c r="B50" s="11"/>
+      <c r="C50" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="D51" s="11"/>
-      <c r="E51" s="46"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="9"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="41"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A37:G37"/>
-    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="A38:H38"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/datasheets/Stages.xlsx
+++ b/datasheets/Stages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3560" yWindow="0" windowWidth="37160" windowHeight="27260" tabRatio="311"/>
+    <workbookView xWindow="10860" yWindow="0" windowWidth="37160" windowHeight="27340" tabRatio="311"/>
   </bookViews>
   <sheets>
     <sheet name="Stages v7.0" sheetId="7" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="214">
   <si>
     <t>Index</t>
   </si>
@@ -351,9 +351,6 @@
     <t>1N4148 silicon diode</t>
   </si>
   <si>
-    <t>SOD523</t>
-  </si>
-  <si>
     <t>512-1N4148WT</t>
   </si>
   <si>
@@ -585,9 +582,6 @@
     <t>ST LD2981ABU33TR</t>
   </si>
   <si>
-    <t>Stages, v7.0</t>
-  </si>
-  <si>
     <t>&gt;= 25V, X6S</t>
   </si>
   <si>
@@ -658,6 +652,15 @@
   </si>
   <si>
     <t>810-CGJ4C2C0G2A101J</t>
+  </si>
+  <si>
+    <t>1N4148WQ-7-F</t>
+  </si>
+  <si>
+    <t>0805</t>
+  </si>
+  <si>
+    <t>Stages, 0805</t>
   </si>
 </sst>
 </file>
@@ -668,7 +671,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.000000000000000"/>
     <numFmt numFmtId="165" formatCode="#,##0.###############"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -744,6 +747,12 @@
       <color rgb="FF222222"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -792,7 +801,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="872">
+  <cellStyleXfs count="890">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3409,8 +3418,62 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3583,6 +3646,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3593,7 +3659,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="872">
+  <cellStyles count="890">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4034,6 +4100,22 @@
     <cellStyle name="Followed Hyperlink" xfId="867" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="869" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="871" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="873" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="875" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="876" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="877" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="878" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="879" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="880" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="881" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="882" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="883" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="884" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="885" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="886" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="887" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="888" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="889" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4465,6 +4547,8 @@
     <cellStyle name="Hyperlink" xfId="866" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="868" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="870" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="872" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="874" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4862,10 +4946,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J50"/>
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -4877,27 +4964,27 @@
     <col min="5" max="5" width="5.1640625" style="38" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.83203125" style="42" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.6640625" style="42" customWidth="1"/>
-    <col min="8" max="8" width="21.1640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.1640625" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="4.83203125" style="1" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="30.83203125" style="1" customWidth="1"/>
     <col min="11" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="34" customHeight="1">
-      <c r="A1" s="60" t="s">
-        <v>188</v>
-      </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
+    <row r="1" spans="1:11" ht="34" customHeight="1">
+      <c r="A1" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
     </row>
-    <row r="2" spans="1:10" ht="12" thickBot="1">
+    <row r="2" spans="1:11" ht="12" thickBot="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -4917,7 +5004,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>6</v>
@@ -4929,23 +5016,23 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="12" customHeight="1">
-      <c r="A3" s="61" t="s">
+    <row r="3" spans="1:11" ht="12" customHeight="1">
+      <c r="A3" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
       <c r="I3" s="12"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" s="15" customFormat="1" ht="12">
+    <row r="4" spans="1:11" s="15" customFormat="1" ht="12">
       <c r="A4" s="24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B4" s="30">
         <v>6</v>
@@ -4958,23 +5045,26 @@
         <v>&lt;=1%, 100mW</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="F4" s="36" t="str">
-        <f>"0402"</f>
-        <v>0402</v>
+        <v>173</v>
+      </c>
+      <c r="F4" s="60" t="s">
+        <v>212</v>
       </c>
       <c r="G4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J4" s="19"/>
+      <c r="K4" s="15" t="str">
+        <f>+G4&amp;"|"&amp;B4</f>
+        <v>603-RC0805FR-0715KL|6</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" s="15" customFormat="1">
+    <row r="5" spans="1:11" s="15" customFormat="1">
       <c r="A5" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B5" s="30">
         <v>6</v>
@@ -4989,21 +5079,24 @@
       <c r="E5" s="24">
         <v>100</v>
       </c>
-      <c r="F5" s="36" t="str">
-        <f t="shared" ref="F5:F11" si="1">"0402"</f>
-        <v>0402</v>
+      <c r="F5" s="60" t="s">
+        <v>212</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H5" s="24" t="s">
         <v>66</v>
       </c>
       <c r="J5" s="19"/>
+      <c r="K5" s="15" t="str">
+        <f t="shared" ref="K5:K35" si="1">+G5&amp;"|"&amp;B5</f>
+        <v>603-RC0805FR-07100RL|6</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" s="15" customFormat="1" ht="12">
+    <row r="6" spans="1:11" s="15" customFormat="1" ht="12">
       <c r="A6" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B6" s="30">
         <v>9</v>
@@ -5018,21 +5111,24 @@
       <c r="E6" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="36" t="str">
-        <f t="shared" si="1"/>
-        <v>0402</v>
+      <c r="F6" s="60" t="s">
+        <v>212</v>
       </c>
       <c r="G6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H6" s="24" t="s">
         <v>22</v>
       </c>
       <c r="J6" s="19"/>
+      <c r="K6" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>603-RC0805FR-0710KL|9</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" s="15" customFormat="1" ht="12">
+    <row r="7" spans="1:11" s="15" customFormat="1" ht="12">
       <c r="A7" s="24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B7" s="30">
         <v>12</v>
@@ -5047,21 +5143,24 @@
       <c r="E7" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="36" t="str">
-        <f t="shared" si="1"/>
-        <v>0402</v>
+      <c r="F7" s="60" t="s">
+        <v>212</v>
       </c>
       <c r="G7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H7" s="24" t="s">
         <v>28</v>
       </c>
       <c r="J7" s="19"/>
+      <c r="K7" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>603-RC0805FR-0720KL|12</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" s="15" customFormat="1">
+    <row r="8" spans="1:11" s="15" customFormat="1">
       <c r="A8" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B8" s="30">
         <v>6</v>
@@ -5074,22 +5173,25 @@
         <v>&lt;=1%, 100mW</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="F8" s="36" t="str">
+        <v>174</v>
+      </c>
+      <c r="F8" s="60" t="s">
+        <v>212</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="K8" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>0402</v>
-      </c>
-      <c r="G8" s="36" t="s">
-        <v>199</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>177</v>
+        <v>603-RC0805FR-0730KL|6</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="15" customFormat="1" ht="22">
+    <row r="9" spans="1:11" s="15" customFormat="1" ht="22">
       <c r="A9" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B9" s="30">
         <v>19</v>
@@ -5104,20 +5206,23 @@
       <c r="E9" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="36" t="str">
-        <f t="shared" si="1"/>
-        <v>0402</v>
+      <c r="F9" s="60" t="s">
+        <v>212</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H9" s="24" t="s">
         <v>26</v>
       </c>
+      <c r="K9" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>603-RC0805FR-07100KL|19</v>
+      </c>
     </row>
-    <row r="10" spans="1:10" s="15" customFormat="1">
+    <row r="10" spans="1:11" s="15" customFormat="1">
       <c r="A10" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B10" s="30">
         <v>12</v>
@@ -5131,20 +5236,23 @@
       <c r="E10" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="36" t="str">
-        <f>"0603"</f>
-        <v>0603</v>
+      <c r="F10" s="60" t="s">
+        <v>212</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>178</v>
+        <v>177</v>
+      </c>
+      <c r="K10" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>603-RC0805FR-071KL|12</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="15" customFormat="1">
+    <row r="11" spans="1:11" s="15" customFormat="1">
       <c r="A11" s="24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B11" s="30">
         <v>7</v>
@@ -5157,22 +5265,25 @@
         <v>&lt;=1%, 100mW</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="F11" s="36" t="str">
+        <v>175</v>
+      </c>
+      <c r="F11" s="60" t="s">
+        <v>212</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="K11" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>0402</v>
-      </c>
-      <c r="G11" s="36" t="s">
-        <v>202</v>
-      </c>
-      <c r="H11" s="24" t="s">
-        <v>179</v>
+        <v>603-RC0805FR-07130KL|7</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="15" customFormat="1">
+    <row r="12" spans="1:11" s="15" customFormat="1">
       <c r="A12" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B12" s="17">
         <v>4</v>
@@ -5184,12 +5295,11 @@
         <v>20</v>
       </c>
       <c r="E12" s="24"/>
-      <c r="F12" s="31" t="str">
-        <f>"0603"</f>
-        <v>0603</v>
+      <c r="F12" s="60" t="s">
+        <v>212</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H12" s="32" t="s">
         <v>21</v>
@@ -5198,10 +5308,14 @@
       <c r="J12" s="31" t="s">
         <v>72</v>
       </c>
+      <c r="K12" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>810-MMZ2012S102A|4</v>
+      </c>
     </row>
-    <row r="13" spans="1:10" s="15" customFormat="1">
+    <row r="13" spans="1:11" s="15" customFormat="1">
       <c r="A13" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B13" s="17">
         <v>1</v>
@@ -5213,9 +5327,8 @@
       <c r="E13" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F13" s="18" t="str">
-        <f>"0805"</f>
-        <v>0805</v>
+      <c r="F13" s="60" t="s">
+        <v>212</v>
       </c>
       <c r="G13" s="24" t="s">
         <v>80</v>
@@ -5226,8 +5339,12 @@
       <c r="J13" s="10" t="s">
         <v>82</v>
       </c>
+      <c r="K13" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>810-MLZ2012M330WT000|1</v>
+      </c>
     </row>
-    <row r="14" spans="1:10" s="15" customFormat="1">
+    <row r="14" spans="1:11" s="15" customFormat="1">
       <c r="A14" s="24" t="s">
         <v>93</v>
       </c>
@@ -5247,7 +5364,7 @@
         <v>1206</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H14" s="24" t="s">
         <v>30</v>
@@ -5255,8 +5372,12 @@
       <c r="J14" s="17" t="s">
         <v>31</v>
       </c>
+      <c r="K14" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>963-TMK316BBJ226ML-T|13</v>
+      </c>
     </row>
-    <row r="15" spans="1:10" s="15" customFormat="1">
+    <row r="15" spans="1:11" s="15" customFormat="1">
       <c r="A15" s="24" t="s">
         <v>94</v>
       </c>
@@ -5272,12 +5393,11 @@
       <c r="E15" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="48" t="str">
-        <f>"0402"</f>
-        <v>0402</v>
+      <c r="F15" s="60" t="s">
+        <v>212</v>
       </c>
       <c r="G15" s="48" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H15" s="24" t="s">
         <v>36</v>
@@ -5286,8 +5406,12 @@
       <c r="J15" s="10" t="s">
         <v>37</v>
       </c>
+      <c r="K15" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>603-CC805JRNPO9BN200|2</v>
+      </c>
     </row>
-    <row r="16" spans="1:10" s="15" customFormat="1" ht="22">
+    <row r="16" spans="1:11" s="15" customFormat="1" ht="22">
       <c r="A16" s="24" t="s">
         <v>95</v>
       </c>
@@ -5303,12 +5427,11 @@
       <c r="E16" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="48" t="str">
-        <f>"0402"</f>
-        <v>0402</v>
+      <c r="F16" s="60" t="s">
+        <v>212</v>
       </c>
       <c r="G16" s="48" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H16" s="24" t="s">
         <v>23</v>
@@ -5317,8 +5440,12 @@
       <c r="J16" s="10" t="s">
         <v>24</v>
       </c>
+      <c r="K16" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>581-08053D104KAT2A|17</v>
+      </c>
     </row>
-    <row r="17" spans="1:10" s="15" customFormat="1">
+    <row r="17" spans="1:11" s="15" customFormat="1">
       <c r="A17" s="24" t="s">
         <v>96</v>
       </c>
@@ -5329,17 +5456,16 @@
         <v>11</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F17" s="36" t="str">
-        <f>"0402"</f>
-        <v>0402</v>
+      <c r="F17" s="60" t="s">
+        <v>212</v>
       </c>
       <c r="G17" s="36" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H17" s="24" t="s">
         <v>25</v>
@@ -5347,8 +5473,12 @@
       <c r="J17" s="17" t="s">
         <v>74</v>
       </c>
+      <c r="K17" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>81-GRM219C8YA105KA3D|5</v>
+      </c>
     </row>
-    <row r="18" spans="1:10" s="15" customFormat="1">
+    <row r="18" spans="1:11" s="15" customFormat="1">
       <c r="A18" s="24" t="s">
         <v>97</v>
       </c>
@@ -5364,12 +5494,11 @@
       <c r="E18" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="F18" s="36" t="str">
-        <f>"0402"</f>
-        <v>0402</v>
+      <c r="F18" s="60" t="s">
+        <v>212</v>
       </c>
       <c r="G18" s="36" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H18" s="24" t="s">
         <v>99</v>
@@ -5377,8 +5506,12 @@
       <c r="J18" s="17" t="s">
         <v>101</v>
       </c>
+      <c r="K18" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>603-CC805JRX7R9BB222|5</v>
+      </c>
     </row>
-    <row r="19" spans="1:10" s="15" customFormat="1">
+    <row r="19" spans="1:11" s="15" customFormat="1">
       <c r="A19" s="24" t="s">
         <v>102</v>
       </c>
@@ -5394,12 +5527,11 @@
       <c r="E19" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="F19" s="37" t="str">
-        <f>"0402"</f>
-        <v>0402</v>
+      <c r="F19" s="60" t="s">
+        <v>212</v>
       </c>
       <c r="G19" s="37" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H19" s="24" t="s">
         <v>104</v>
@@ -5408,8 +5540,12 @@
       <c r="J19" s="22" t="s">
         <v>105</v>
       </c>
+      <c r="K19" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>80-C0805C471J1GAUTO|1</v>
+      </c>
     </row>
-    <row r="20" spans="1:10" s="15" customFormat="1">
+    <row r="20" spans="1:11" s="15" customFormat="1">
       <c r="A20" s="24" t="s">
         <v>106</v>
       </c>
@@ -5417,25 +5553,29 @@
         <v>6</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="28"/>
-      <c r="F20" s="28">
-        <v>603</v>
+      <c r="F20" s="60" t="s">
+        <v>212</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
+      </c>
+      <c r="K20" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>810-AVR-M2012C220K|6</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="15" customFormat="1">
+    <row r="21" spans="1:11" s="15" customFormat="1">
       <c r="A21" s="24" t="s">
         <v>107</v>
       </c>
@@ -5451,12 +5591,11 @@
       <c r="E21" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="37" t="str">
-        <f>"0402"</f>
-        <v>0402</v>
+      <c r="F21" s="60" t="s">
+        <v>212</v>
       </c>
       <c r="G21" s="37" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H21" s="24" t="s">
         <v>39</v>
@@ -5465,8 +5604,12 @@
       <c r="J21" s="22" t="s">
         <v>40</v>
       </c>
+      <c r="K21" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>810-CGJ4C2C0G2A101J|6</v>
+      </c>
     </row>
-    <row r="22" spans="1:10" s="15" customFormat="1">
+    <row r="22" spans="1:11" s="15" customFormat="1">
       <c r="A22" s="24" t="s">
         <v>32</v>
       </c>
@@ -5481,7 +5624,9 @@
       <c r="F22" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="G22" s="28"/>
+      <c r="G22" s="10" t="s">
+        <v>43</v>
+      </c>
       <c r="H22" s="10" t="s">
         <v>43</v>
       </c>
@@ -5489,8 +5634,12 @@
       <c r="J22" s="10" t="s">
         <v>44</v>
       </c>
+      <c r="K22" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>621-1N5819HW-F|2</v>
+      </c>
     </row>
-    <row r="23" spans="1:10" s="15" customFormat="1">
+    <row r="23" spans="1:11" s="15" customFormat="1">
       <c r="A23" s="24" t="s">
         <v>108</v>
       </c>
@@ -5502,21 +5651,27 @@
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="28"/>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="H23" s="25" t="s">
         <v>110</v>
-      </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="25" t="s">
-        <v>111</v>
       </c>
       <c r="I23" s="10"/>
       <c r="J23" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="K23" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>1N4148WQ-7-F|6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="15" customFormat="1">
+      <c r="A24" s="10" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="15" customFormat="1">
-      <c r="A24" s="10" t="s">
-        <v>113</v>
       </c>
       <c r="B24" s="26">
         <v>1</v>
@@ -5529,7 +5684,9 @@
       <c r="F24" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="27"/>
+      <c r="G24" s="27" t="s">
+        <v>79</v>
+      </c>
       <c r="H24" s="27" t="s">
         <v>79</v>
       </c>
@@ -5537,8 +5694,12 @@
       <c r="J24" s="27" t="s">
         <v>88</v>
       </c>
+      <c r="K24" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>512-BAT54S|1</v>
+      </c>
     </row>
-    <row r="25" spans="1:10" s="15" customFormat="1">
+    <row r="25" spans="1:11" s="15" customFormat="1">
       <c r="A25" s="24" t="s">
         <v>33</v>
       </c>
@@ -5553,7 +5714,9 @@
       <c r="F25" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="G25" s="28"/>
+      <c r="G25" s="24" t="s">
+        <v>71</v>
+      </c>
       <c r="H25" s="24" t="s">
         <v>71</v>
       </c>
@@ -5561,8 +5724,12 @@
       <c r="J25" s="10" t="s">
         <v>49</v>
       </c>
+      <c r="K25" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>595-TLC59281DBQR|1</v>
+      </c>
     </row>
-    <row r="26" spans="1:10" s="15" customFormat="1">
+    <row r="26" spans="1:11" s="15" customFormat="1">
       <c r="A26" s="24" t="s">
         <v>46</v>
       </c>
@@ -5570,42 +5737,54 @@
         <v>1</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="28"/>
       <c r="F26" s="49" t="s">
-        <v>181</v>
-      </c>
-      <c r="G26" s="49"/>
+        <v>180</v>
+      </c>
+      <c r="G26" s="50" t="s">
+        <v>114</v>
+      </c>
       <c r="H26" s="50" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
+      <c r="K26" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>919-ROF78E3.3-.5SMDR|1</v>
+      </c>
     </row>
-    <row r="27" spans="1:10" s="15" customFormat="1">
+    <row r="27" spans="1:11" s="15" customFormat="1">
       <c r="A27" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B27" s="17">
         <v>2</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="38"/>
       <c r="F27" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G27" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="G27" s="10"/>
       <c r="H27" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J27" s="17"/>
+      <c r="K27" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>595-CD4051BPWR|2</v>
+      </c>
     </row>
-    <row r="28" spans="1:10" s="15" customFormat="1">
+    <row r="28" spans="1:11" s="15" customFormat="1">
       <c r="A28" s="24" t="s">
         <v>50</v>
       </c>
@@ -5613,23 +5792,29 @@
         <v>1</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="28"/>
       <c r="F28" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G28" s="24"/>
+      <c r="G28" s="25" t="s">
+        <v>120</v>
+      </c>
       <c r="H28" s="25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="29" t="s">
-        <v>122</v>
+        <v>121</v>
+      </c>
+      <c r="K28" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>595-DAC8168IAPW|1</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="15" customFormat="1">
+    <row r="29" spans="1:11" s="15" customFormat="1">
       <c r="A29" s="24" t="s">
         <v>52</v>
       </c>
@@ -5637,31 +5822,37 @@
         <v>1</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="28"/>
       <c r="F29" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="G29" s="24"/>
+        <v>123</v>
+      </c>
+      <c r="G29" s="25" t="s">
+        <v>125</v>
+      </c>
       <c r="H29" s="25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
+      </c>
+      <c r="K29" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>511-STM32F373RBT6|1</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="15" customFormat="1">
+    <row r="30" spans="1:11" s="15" customFormat="1">
       <c r="A30" s="24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B30" s="17">
         <v>1</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>45</v>
@@ -5670,42 +5861,54 @@
       <c r="F30" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="G30" s="24"/>
+      <c r="G30" s="25" t="s">
+        <v>185</v>
+      </c>
       <c r="H30" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="29" t="s">
-        <v>187</v>
+        <v>186</v>
+      </c>
+      <c r="K30" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>511-LD2981ABU33|1</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="15" customFormat="1">
+    <row r="31" spans="1:11" s="15" customFormat="1">
       <c r="A31" s="24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B31" s="17">
         <v>3</v>
       </c>
       <c r="C31" s="47" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D31" s="47"/>
       <c r="E31" s="54"/>
       <c r="F31" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="G31" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="G31" s="10"/>
       <c r="H31" s="50" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I31" s="10"/>
       <c r="J31" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="K31" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>579-MCP6002T-I/MS|3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="15" customFormat="1">
+      <c r="A32" s="24" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" s="15" customFormat="1">
-      <c r="A32" s="24" t="s">
-        <v>133</v>
       </c>
       <c r="B32" s="17">
         <v>1</v>
@@ -5714,46 +5917,58 @@
         <v>53</v>
       </c>
       <c r="D32" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="E32" s="56" t="s">
         <v>134</v>
-      </c>
-      <c r="E32" s="56" t="s">
-        <v>135</v>
       </c>
       <c r="F32" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="G32" s="51"/>
+      <c r="G32" s="52" t="s">
+        <v>135</v>
+      </c>
       <c r="H32" s="52" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I32" s="14"/>
       <c r="J32" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="K32" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>595-LM4040C25IDBZR|1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" s="15" customFormat="1">
+      <c r="A33" s="24" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" s="15" customFormat="1">
-      <c r="A33" s="24" t="s">
-        <v>138</v>
       </c>
       <c r="B33" s="17">
         <v>3</v>
       </c>
       <c r="C33" s="47" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D33" s="47"/>
       <c r="E33" s="54"/>
       <c r="F33" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="G33" s="47"/>
+      <c r="G33" s="50" t="s">
+        <v>139</v>
+      </c>
       <c r="H33" s="50" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I33" s="17"/>
       <c r="J33" s="23"/>
+      <c r="K33" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>595-TL074CPWR|3</v>
+      </c>
     </row>
-    <row r="34" spans="1:10" s="15" customFormat="1">
+    <row r="34" spans="1:11" s="15" customFormat="1">
       <c r="A34" s="24" t="s">
         <v>57</v>
       </c>
@@ -5772,7 +5987,9 @@
       <c r="F34" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="G34" s="36"/>
+      <c r="G34" s="24" t="s">
+        <v>85</v>
+      </c>
       <c r="H34" s="24" t="s">
         <v>85</v>
       </c>
@@ -5780,100 +5997,110 @@
       <c r="J34" s="23" t="s">
         <v>87</v>
       </c>
+      <c r="K34" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>815-ABMM2-8-E2T|1</v>
+      </c>
     </row>
-    <row r="35" spans="1:10" s="15" customFormat="1">
+    <row r="35" spans="1:11" s="15" customFormat="1">
       <c r="A35" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B35" s="17">
         <v>6</v>
       </c>
       <c r="C35" s="47" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D35" s="47"/>
       <c r="E35" s="54"/>
       <c r="F35" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="G35" s="47"/>
+      <c r="G35" s="47" t="s">
+        <v>160</v>
+      </c>
       <c r="H35" s="47" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I35" s="47"/>
       <c r="J35" s="47" t="s">
-        <v>162</v>
+        <v>161</v>
+      </c>
+      <c r="K35" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>863-MMBT3904LT1G|6</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="12" customHeight="1">
-      <c r="A36" s="62" t="s">
-        <v>146</v>
-      </c>
-      <c r="B36" s="62"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="62"/>
-      <c r="H36" s="62"/>
+    <row r="36" spans="1:11" ht="12" customHeight="1">
+      <c r="A36" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="B36" s="63"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="63"/>
       <c r="I36" s="13"/>
       <c r="J36" s="6"/>
     </row>
-    <row r="37" spans="1:10" s="15" customFormat="1">
+    <row r="37" spans="1:11" s="15" customFormat="1">
       <c r="A37" s="24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B37" s="15">
         <v>1</v>
       </c>
       <c r="C37" s="47" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D37" s="47"/>
       <c r="E37" s="54"/>
       <c r="F37" s="47"/>
       <c r="G37" s="47"/>
       <c r="H37" s="47" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I37" s="47"/>
       <c r="J37" s="47"/>
     </row>
-    <row r="38" spans="1:10" ht="12" customHeight="1">
-      <c r="A38" s="62" t="s">
+    <row r="38" spans="1:11" ht="12" customHeight="1">
+      <c r="A38" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="62"/>
-      <c r="C38" s="62"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="62"/>
-      <c r="G38" s="62"/>
-      <c r="H38" s="62"/>
+      <c r="B38" s="63"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="63"/>
+      <c r="H38" s="63"/>
       <c r="I38" s="13"/>
       <c r="J38" s="6"/>
     </row>
-    <row r="39" spans="1:10" s="15" customFormat="1">
+    <row r="39" spans="1:11" s="15" customFormat="1">
       <c r="A39" s="24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B39" s="15">
         <v>2</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D39" s="16"/>
       <c r="E39" s="53"/>
       <c r="F39" s="16"/>
       <c r="G39" s="16"/>
       <c r="H39" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I39" s="16"/>
       <c r="J39" s="16"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:11">
       <c r="A40" s="58" t="s">
         <v>15</v>
       </c>
@@ -5887,9 +6114,9 @@
       <c r="I40" s="13"/>
       <c r="J40" s="6"/>
     </row>
-    <row r="41" spans="1:10" s="15" customFormat="1" ht="22">
+    <row r="41" spans="1:11" s="15" customFormat="1" ht="22">
       <c r="A41" s="24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B41" s="15">
         <v>18</v>
@@ -5904,32 +6131,38 @@
       <c r="H41" s="1"/>
       <c r="I41" s="10"/>
       <c r="J41" s="14" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="15" customFormat="1">
+    <row r="42" spans="1:11" s="15" customFormat="1">
       <c r="A42" s="24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B42" s="15">
         <v>6</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="38"/>
       <c r="F42" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="G42" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="G42" s="38"/>
       <c r="H42" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I42" s="10"/>
       <c r="J42" s="10"/>
+      <c r="K42" s="15" t="str">
+        <f t="shared" ref="K42" si="2">+G42&amp;"|"&amp;B42</f>
+        <v>604-WP937EGW|6</v>
+      </c>
     </row>
-    <row r="43" spans="1:10" s="15" customFormat="1">
+    <row r="43" spans="1:11" s="15" customFormat="1">
       <c r="A43" s="24" t="s">
         <v>68</v>
       </c>
@@ -5937,7 +6170,7 @@
         <v>6</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D43" s="10"/>
       <c r="E43" s="38"/>
@@ -5946,12 +6179,12 @@
       <c r="H43" s="10"/>
       <c r="I43" s="10"/>
       <c r="J43" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="15" customFormat="1">
+    <row r="44" spans="1:11" s="15" customFormat="1">
       <c r="A44" s="24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B44" s="15">
         <v>6</v>
@@ -5962,7 +6195,9 @@
       <c r="D44" s="1"/>
       <c r="E44" s="38"/>
       <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
+      <c r="G44" s="25" t="s">
+        <v>92</v>
+      </c>
       <c r="H44" s="25" t="s">
         <v>92</v>
       </c>
@@ -5970,8 +6205,12 @@
       <c r="J44" s="24" t="s">
         <v>56</v>
       </c>
+      <c r="K44" s="15" t="str">
+        <f t="shared" ref="K44" si="3">+G44&amp;"|"&amp;B44</f>
+        <v>696-SSLLX3059IGWCA|6</v>
+      </c>
     </row>
-    <row r="45" spans="1:10" s="15" customFormat="1">
+    <row r="45" spans="1:11" s="15" customFormat="1">
       <c r="A45" s="24" t="s">
         <v>68</v>
       </c>
@@ -5983,7 +6222,9 @@
       </c>
       <c r="E45" s="44"/>
       <c r="F45" s="39"/>
-      <c r="G45" s="39"/>
+      <c r="G45" s="21" t="s">
+        <v>70</v>
+      </c>
       <c r="H45" s="21" t="s">
         <v>70</v>
       </c>
@@ -5992,31 +6233,37 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="15" customFormat="1">
+    <row r="46" spans="1:11" s="15" customFormat="1">
       <c r="A46" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B46" s="15">
         <v>6</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D46" s="16"/>
       <c r="E46" s="57"/>
       <c r="F46" s="55"/>
-      <c r="G46" s="55"/>
+      <c r="G46" s="14" t="s">
+        <v>189</v>
+      </c>
       <c r="H46" s="14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I46" s="14"/>
       <c r="J46" s="34" t="s">
-        <v>192</v>
+        <v>190</v>
+      </c>
+      <c r="K46" s="15" t="str">
+        <f t="shared" ref="K46" si="4">+G46&amp;"|"&amp;B46</f>
+        <v>652-PTL20-15G1-203B2|6</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="15" customFormat="1">
+    <row r="47" spans="1:11" s="15" customFormat="1">
       <c r="A47" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B47" s="15">
         <v>6</v>
@@ -6031,12 +6278,12 @@
       <c r="H47" s="10"/>
       <c r="I47" s="10"/>
       <c r="J47" s="59" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="15" customFormat="1">
+    <row r="48" spans="1:11" s="15" customFormat="1">
       <c r="A48" s="24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B48" s="15">
         <v>6</v>
@@ -6047,7 +6294,9 @@
       <c r="D48" s="1"/>
       <c r="E48" s="38"/>
       <c r="F48" s="38"/>
-      <c r="G48" s="38"/>
+      <c r="G48" s="10" t="s">
+        <v>60</v>
+      </c>
       <c r="H48" s="10" t="s">
         <v>60</v>
       </c>
@@ -6055,8 +6304,12 @@
       <c r="J48" s="10" t="s">
         <v>61</v>
       </c>
+      <c r="K48" s="15" t="str">
+        <f t="shared" ref="K48:K49" si="5">+G48&amp;"|"&amp;B48</f>
+        <v>612-TL1105SP-250|6</v>
+      </c>
     </row>
-    <row r="49" spans="1:10" s="15" customFormat="1">
+    <row r="49" spans="1:11" s="15" customFormat="1">
       <c r="A49" s="24" t="s">
         <v>68</v>
       </c>
@@ -6069,7 +6322,9 @@
       <c r="D49" s="1"/>
       <c r="E49" s="38"/>
       <c r="F49" s="38"/>
-      <c r="G49" s="38"/>
+      <c r="G49" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="H49" s="10" t="s">
         <v>63</v>
       </c>
@@ -6077,14 +6332,18 @@
       <c r="J49" s="10" t="s">
         <v>64</v>
       </c>
+      <c r="K49" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>612-1R-BK|6</v>
+      </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:11">
       <c r="A50" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B50" s="11"/>
       <c r="C50" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="46"/>
@@ -6095,21 +6354,21 @@
       <c r="J50" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:J1"/>
+  <mergeCells count="3">
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A36:H36"/>
     <mergeCell ref="A38:H38"/>
   </mergeCells>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.79000000000000015" right="0.79000000000000015" top="1.05" bottom="1.05" header="0.79000000000000015" footer="0.79000000000000015"/>
+  <pageSetup scale="62" firstPageNumber="0" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+      <mx:PLV Mode="0" OnePage="0" WScale="100"/>
     </ext>
   </extLst>
 </worksheet>

--- a/datasheets/Stages.xlsx
+++ b/datasheets/Stages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10860" yWindow="0" windowWidth="37160" windowHeight="27340" tabRatio="311"/>
+    <workbookView xWindow="-32220" yWindow="0" windowWidth="28940" windowHeight="22060" tabRatio="311"/>
   </bookViews>
   <sheets>
     <sheet name="Stages v7.0" sheetId="7" r:id="rId1"/>
